--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/87212562/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/87212562/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9983974099159241</v>
+        <v>0.9970123767852783</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9966905117034912</v>
+        <v>0.9777036309242249</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9811552762985229</v>
+        <v>0.9663483500480652</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9986067414283752</v>
+        <v>0.9970771074295044</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986171722412109</v>
+        <v>0.9970786571502686</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986323714256287</v>
+        <v>0.997094988822937</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.998633086681366</v>
+        <v>0.9970731735229492</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986323714256287</v>
+        <v>0.997094988822937</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986420273780823</v>
+        <v>0.9970736503601074</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9986715316772461</v>
+        <v>0.9970979690551758</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9933475852012634</v>
+        <v>0.9890592098236084</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9985925555229187</v>
+        <v>0.9970874190330505</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.984022319316864</v>
+        <v>0.6159207820892334</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9986097812652588</v>
+        <v>0.9970664381980896</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9985951781272888</v>
+        <v>0.9970523118972778</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9409860372543335</v>
+        <v>0.9153149724006653</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9985882639884949</v>
+        <v>0.9970613121986389</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9985933899879456</v>
+        <v>0.9970036149024963</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986388087272644</v>
+        <v>0.9970831274986267</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986352324485779</v>
+        <v>0.9970719814300537</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9986322522163391</v>
+        <v>0.9970937967300415</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9986465573310852</v>
+        <v>0.9970943927764893</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9812883138656616</v>
+        <v>0.9676562547683716</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8721054792404175</v>
+        <v>0.9106670618057251</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9985752105712891</v>
+        <v>0.9970414042472839</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985918402671814</v>
+        <v>0.9970609545707703</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9985553622245789</v>
+        <v>0.9970446228981018</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9985563158988953</v>
+        <v>0.9970380067825317</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9985679388046265</v>
+        <v>0.9970400929450989</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9909955859184265</v>
+        <v>0.9834766387939453</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.992664098739624</v>
+        <v>0.9886959791183472</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.993104875087738</v>
+        <v>0.989318311214447</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986265897750854</v>
+        <v>0.9970779418945312</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.993178129196167</v>
+        <v>0.9892762899398804</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9986550807952881</v>
+        <v>0.9970904588699341</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6888430118560791</v>
+        <v>0.7883211374282837</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9899951219558716</v>
+        <v>0.9831043481826782</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9986557960510254</v>
+        <v>0.997090220451355</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9884775280952454</v>
+        <v>0.9827786087989807</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9909580945968628</v>
+        <v>0.98348468542099</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9931539297103882</v>
+        <v>0.9893414378166199</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9911333918571472</v>
+        <v>0.9833891987800598</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9907959699630737</v>
+        <v>0.9833285808563232</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8888235092163086</v>
+        <v>0.8013044595718384</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9909362196922302</v>
+        <v>0.9834607839584351</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.9971082806587219</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9907846450805664</v>
+        <v>0.983393132686615</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9890405535697937</v>
+        <v>0.978892982006073</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.998566210269928</v>
+        <v>0.9970356225967407</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9907846450805664</v>
+        <v>0.983393132686615</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9905530214309692</v>
+        <v>0.9829950928688049</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9986295700073242</v>
+        <v>0.9970836043357849</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986153841018677</v>
+        <v>0.9970772266387939</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9986567497253418</v>
+        <v>0.997089684009552</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.993108868598938</v>
+        <v>0.9893390536308289</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986212253570557</v>
+        <v>0.9970525503158569</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9985552430152893</v>
+        <v>0.9970276951789856</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9986175298690796</v>
+        <v>0.997090220451355</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9986438155174255</v>
+        <v>0.9970976114273071</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9931222796440125</v>
+        <v>0.9893368482589722</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4826743602752686</v>
+        <v>0.5395004153251648</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9931615591049194</v>
+        <v>0.9893491268157959</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9931615591049194</v>
+        <v>0.9893491268157959</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9929634928703308</v>
+        <v>0.9892776012420654</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9931615591049194</v>
+        <v>0.9893491268157959</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9867337942123413</v>
+        <v>0.972272515296936</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9986100196838379</v>
+        <v>0.9970787763595581</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8608608841896057</v>
+        <v>0.9860728979110718</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9984917640686035</v>
+        <v>0.9969891905784607</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.993152379989624</v>
+        <v>0.9893326759338379</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.998648464679718</v>
+        <v>0.9971042275428772</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985369443893433</v>
+        <v>0.997040331363678</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.993152379989624</v>
+        <v>0.9893326759338379</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9985507130622864</v>
+        <v>0.9970366954803467</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.993152379989624</v>
+        <v>0.9893326759338379</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9986342787742615</v>
+        <v>0.9970878958702087</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9929949641227722</v>
+        <v>0.9893217086791992</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9985558390617371</v>
+        <v>0.9970232844352722</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9929949641227722</v>
+        <v>0.9893217086791992</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9985128045082092</v>
+        <v>0.9970218539237976</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9985128045082092</v>
+        <v>0.9970218539237976</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9986496567726135</v>
+        <v>0.9971070885658264</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.993099570274353</v>
+        <v>0.9893576502799988</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9985877275466919</v>
+        <v>0.9970297813415527</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9930239915847778</v>
+        <v>0.9892987012863159</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.998577356338501</v>
+        <v>0.997015118598938</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9986390471458435</v>
+        <v>0.9970920085906982</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.998630702495575</v>
+        <v>0.9970868229866028</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9986446499824524</v>
+        <v>0.9970927238464355</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9986242055892944</v>
+        <v>0.9970853924751282</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9986328482627869</v>
+        <v>0.9970840811729431</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986322522163391</v>
+        <v>0.9970927238464355</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9986695051193237</v>
+        <v>0.9971023201942444</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9107272028923035</v>
+        <v>0.9288290143013</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986310601234436</v>
+        <v>0.9970772266387939</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9195342063903809</v>
+        <v>0.9237568378448486</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9986415505409241</v>
+        <v>0.9970837235450745</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9986124038696289</v>
+        <v>0.9970742464065552</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.974970281124115</v>
+        <v>0.9598385691642761</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989177405834198</v>
+        <v>0.9616788029670715</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9985906481742859</v>
+        <v>0.9970470070838928</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9871639013290405</v>
+        <v>0.9726638197898865</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9986388087272644</v>
+        <v>0.9970847964286804</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9908891320228577</v>
+        <v>0.983569324016571</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9821280241012573</v>
+        <v>0.967355489730835</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9986166954040527</v>
+        <v>0.9970766305923462</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.990911066532135</v>
+        <v>0.9833070039749146</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9908555746078491</v>
+        <v>0.9834216237068176</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9932944178581238</v>
+        <v>0.9892619848251343</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.998640239238739</v>
+        <v>0.9970884919166565</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9928669929504395</v>
+        <v>0.9889116287231445</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9980302453041077</v>
+        <v>0.9964593052864075</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9985957741737366</v>
+        <v>0.9970633387565613</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9753807187080383</v>
+        <v>0.945978581905365</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5881105065345764</v>
+        <v>0.8529630899429321</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9871339201927185</v>
+        <v>0.9722159504890442</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9986730813980103</v>
+        <v>0.9971068501472473</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9871339201927185</v>
+        <v>0.9722159504890442</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986730813980103</v>
+        <v>0.9971068501472473</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9871339201927185</v>
+        <v>0.9722159504890442</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9986445307731628</v>
+        <v>0.9970771074295044</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9744208455085754</v>
+        <v>0.9471411108970642</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.912664532661438</v>
+        <v>0.8830260634422302</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9509978890419006</v>
+        <v>0.9223446249961853</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9986036419868469</v>
+        <v>0.9970645308494568</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8042221665382385</v>
+        <v>0.5821171998977661</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9986199140548706</v>
+        <v>0.997067391872406</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9986013770103455</v>
+        <v>0.9970632195472717</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986090064048767</v>
+        <v>0.9970658421516418</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9983102083206177</v>
+        <v>0.9966377019882202</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9986203908920288</v>
+        <v>0.9970735311508179</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9986217021942139</v>
+        <v>0.997021496295929</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9985930323600769</v>
+        <v>0.9970660805702209</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9985679388046265</v>
+        <v>0.9970364570617676</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6463029980659485</v>
+        <v>0.6035385131835938</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9929270148277283</v>
+        <v>0.9893578886985779</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9986475110054016</v>
+        <v>0.9970943927764893</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9929270148277283</v>
+        <v>0.9893578886985779</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.998570442199707</v>
+        <v>0.9970396161079407</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9867337942123413</v>
+        <v>0.972272515296936</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9986273050308228</v>
+        <v>0.997089684009552</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9932686686515808</v>
+        <v>0.9894242882728577</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9703619480133057</v>
+        <v>0.7806819081306458</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9660873413085938</v>
+        <v>0.9587161540985107</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986703395843506</v>
+        <v>0.99710613489151</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9823158383369446</v>
+        <v>0.9679698944091797</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9986525774002075</v>
+        <v>0.997093677520752</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9820293784141541</v>
+        <v>0.9675931930541992</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986581802368164</v>
+        <v>0.9970965385437012</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9820572137832642</v>
+        <v>0.9676207304000854</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9986473917961121</v>
+        <v>0.9970946311950684</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9565804600715637</v>
+        <v>0.9851531982421875</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9985933899879456</v>
+        <v>0.997076153755188</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9967719912528992</v>
+        <v>0.9899111390113831</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9985914826393127</v>
+        <v>0.9970505237579346</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9929335117340088</v>
+        <v>0.989205002784729</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9986602067947388</v>
+        <v>0.9970830082893372</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9834837317466736</v>
+        <v>0.9878703951835632</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.990559995174408</v>
+        <v>0.9829912185668945</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9929853081703186</v>
+        <v>0.9885361194610596</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.990559995174408</v>
+        <v>0.9829912185668945</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.992890477180481</v>
+        <v>0.9887652397155762</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9985873699188232</v>
+        <v>0.9970558881759644</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9986244440078735</v>
+        <v>0.9970731735229492</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9986094236373901</v>
+        <v>0.9970628619194031</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9986244440078735</v>
+        <v>0.9970731735229492</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9986244440078735</v>
+        <v>0.9970731735229492</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9986094236373901</v>
+        <v>0.9970628619194031</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9986425042152405</v>
+        <v>0.9970884919166565</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9985260367393494</v>
+        <v>0.9970155954360962</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9985888600349426</v>
+        <v>0.9970512390136719</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9985958933830261</v>
+        <v>0.9970629811286926</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9986047148704529</v>
+        <v>0.997065007686615</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9863584637641907</v>
+        <v>0.9727731347084045</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9986623525619507</v>
+        <v>0.9971031546592712</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9986627101898193</v>
+        <v>0.9970999956130981</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.998666524887085</v>
+        <v>0.9971054196357727</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9986521601676941</v>
+        <v>0.9970780611038208</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986287355422974</v>
+        <v>0.9970793724060059</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9986147880554199</v>
+        <v>0.9970604777336121</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9986169338226318</v>
+        <v>0.9970566034317017</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.909299910068512</v>
+        <v>0.9283152222633362</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.998607337474823</v>
+        <v>0.9970663189888</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9985920786857605</v>
+        <v>0.9970640540122986</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9870852828025818</v>
+        <v>0.9724125266075134</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9909898042678833</v>
+        <v>0.983549952507019</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9986580610275269</v>
+        <v>0.9971001744270325</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9986513257026672</v>
+        <v>0.9970929622650146</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9986550807952881</v>
+        <v>0.9970898628234863</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.99857497215271</v>
+        <v>0.9970709085464478</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.803043007850647</v>
+        <v>0.9776862859725952</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9970830082893372</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986557960510254</v>
+        <v>0.9970858693122864</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9986146688461304</v>
+        <v>0.9970531463623047</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9908589720726013</v>
+        <v>0.9831421375274658</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.998653769493103</v>
+        <v>0.9970904588699341</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9986177682876587</v>
+        <v>0.9970752000808716</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9136596322059631</v>
+        <v>0.9282567501068115</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9985260963439941</v>
+        <v>0.9970000386238098</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9196826815605164</v>
+        <v>0.917227029800415</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9986188411712646</v>
+        <v>0.9970732927322388</v>
       </c>
     </row>
   </sheetData>
